--- a/Wurm TD Pre-Programming/Senior Project - Test Plan.xlsx
+++ b/Wurm TD Pre-Programming/Senior Project - Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nycdoe-my.sharepoint.com/personal/jianzhuoy_nycstudents_net/Documents/Desktop/Wurm TD Pre-Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{8EF14300-68CF-4C11-8310-E3E9674B230A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D29D131-E6A7-487C-A7BA-93BFD48EF6B1}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="8_{8EF14300-68CF-4C11-8310-E3E9674B230A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB84F079-6E91-4FB6-B3C4-259866BF8F51}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12CB8122-59FF-4AD0-AF33-97D40EC431A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Jianzhuo</t>
   </si>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>User clicks on start button</t>
-  </si>
-  <si>
-    <t>Open shop
-(go to shop test plan)</t>
   </si>
   <si>
     <t>If Normal: Set difficulty to 
@@ -99,21 +95,85 @@
     <t>Settings</t>
   </si>
   <si>
-    <t>User clicks on settings button</t>
-  </si>
-  <si>
     <t>Open Settings menu
 (go to settings test plan)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>User clicks on settings 
+button</t>
+  </si>
+  <si>
+    <t>Open settings</t>
+  </si>
+  <si>
+    <t>User clicked on 
+settings button</t>
+  </si>
+  <si>
+    <t>Darken background, 
+open settings</t>
+  </si>
+  <si>
+    <t>User clicked on music volume bar</t>
+  </si>
+  <si>
+    <t>Music volume</t>
+  </si>
+  <si>
+    <t>Sound effects 
+volume</t>
+  </si>
+  <si>
+    <t>User clicked on
+sound effect volume bar</t>
+  </si>
+  <si>
+    <t>Set music volume based on the position of the bar</t>
+  </si>
+  <si>
+    <t>Set sound effect volume based on the position of the bar</t>
+  </si>
+  <si>
+    <t>Master Volume</t>
+  </si>
+  <si>
+    <t>User clicked on 
+master volume bar</t>
+  </si>
+  <si>
+    <t>multiply music and sound effect volume based on the master volume bar position</t>
+  </si>
+  <si>
+    <t>Return button</t>
+  </si>
+  <si>
+    <t>User clicks on return button</t>
+  </si>
+  <si>
+    <t>Open shop menu
+(go to shop test plan)</t>
+  </si>
+  <si>
+    <t>Go back to main menu</t>
+  </si>
+  <si>
+    <t>Mute button</t>
+  </si>
+  <si>
+    <t>User clicks on mute button</t>
+  </si>
+  <si>
+    <t>Set all volume bars to 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,16 +209,35 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -280,11 +359,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,8 +455,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -314,29 +485,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -459,6 +660,64 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -479,6 +738,18 @@
     <tableColumn id="1" xr3:uid="{88DBCC05-C6A7-47DF-AE73-7878B7B13598}" name="Function" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{0424F2FC-DC45-44C4-B91C-3030853AC8FF}" name="Input" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{24D21EC2-603E-4EF9-8FE5-620C1BE3F05D}" name="Expected Output" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09673DD2-BA93-4101-AC4F-F5F3763583D5}" name="Table3" displayName="Table3" ref="G4:I10" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="G4:I10" xr:uid="{09673DD2-BA93-4101-AC4F-F5F3763583D5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2588C974-24BD-4E67-B04A-52FD4B2B51B4}" name="Function"/>
+    <tableColumn id="2" xr3:uid="{2B0C5689-DF08-41BF-81A6-24D583C01742}" name="Input"/>
+    <tableColumn id="3" xr3:uid="{A7CB3285-C61F-4166-824F-7E4F823AEF7E}" name="Expected Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -801,20 +1072,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74FBED6-3CD5-4B4B-91E1-3CD25D9EFDE5}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5" style="1"/>
-    <col min="3" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="18.5" style="1"/>
+    <col min="1" max="2" width="18.42578125" style="1"/>
+    <col min="3" max="5" width="23.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="18.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -825,7 +1096,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -836,16 +1107,21 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="21" thickBot="1">
+    <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="G3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
@@ -857,79 +1133,145 @@
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="33" customHeight="1">
+    <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="G5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="105">
+    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="D8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="33" customHeight="1">
-      <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>15</v>
+    <row r="9" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="33" customHeight="1">
-      <c r="C8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>19</v>
+    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="33" customHeight="1">
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="33" customHeight="1"/>
-    <row r="11" spans="1:5" ht="33" customHeight="1"/>
-    <row r="12" spans="1:5" ht="33" customHeight="1"/>
-    <row r="13" spans="1:5" ht="33" customHeight="1"/>
-    <row r="14" spans="1:5" ht="33" customHeight="1"/>
-    <row r="15" spans="1:5" ht="33" customHeight="1"/>
-    <row r="16" spans="1:5" ht="33" customHeight="1"/>
-    <row r="17" ht="33" customHeight="1"/>
-    <row r="18" ht="33" customHeight="1"/>
-    <row r="19" ht="33" customHeight="1"/>
-    <row r="20" ht="33" customHeight="1"/>
+    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>